--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/workstationImportSchema_cn.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/workstationImportSchema_cn.xlsx
@@ -1,111 +1,796 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuho\Desktop\Import templates - 副本\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDDE442-6584-4BC1-8C6E-32ED910C5F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Workstations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Anna Kaźmierczak</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1897AE57-09DB-41B1-9B35-3BF5CE1A093E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>编号必须唯一</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1719F263-BFAA-4AC7-8ABF-1CD7AD5DFE4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9C8AD0D0-D1F6-43EB-92A4-8BBFA2C556E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入qcadoo中工作站类型的编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{206DF091-0AC5-4365-8EB9-392F662B0EB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{997485A9-4C5B-487C-A86D-FD6FF09AF00E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{AA3A98A9-5BC6-4835-8E78-CA5762AA7F4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{33FC0C15-BE54-4B8A-A260-1A3660BA77DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{996EE2E8-2641-4A3D-8B9E-B0459CBCC520}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{8662637F-3ADD-4414-88BC-38C499F0C617}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0E4AA65E-0228-46C0-9DA7-59B087A4E096}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{372B5DE9-EBA1-4314-90C0-3B0742117D49}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{AD430B3E-DBBA-4906-83C6-95D39A3A281D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5C4336F5-92FB-4CDF-917C-FC37AE6EEDC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入qcadoo中定义的部门编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{2CC57D8A-A3FB-45F7-B6F5-12B70F9951D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据。输入在</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中定义的产线编号。输入产线线，必须填写</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>“</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>部门</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>”</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>列，并且该产线必须属于该部门。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>工作站编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工作站名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工作站类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>系列号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造商</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产线编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">WNK </t>
+    </r>
+    <r>
       <rPr>
-        <b val="1"/>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
+      <t>编号</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>入厂日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>UDT</t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>编号</t>
     </r>
-  </si>
-  <si>
-    <t>系列</t>
-  </si>
-  <si>
-    <t>制造商</t>
-  </si>
-  <si>
-    <t>生产日期</t>
-  </si>
-  <si>
-    <t>入职日期</t>
-  </si>
-  <si>
-    <t>离职日期</t>
-  </si>
-  <si>
-    <t>仓库编号</t>
-  </si>
-  <si>
-    <t>部门编号</t>
-  </si>
-  <si>
-    <t>生产线编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
+      <charset val="238"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -122,7 +807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -130,84 +815,560 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{2DB8210F-25C4-4497-BD4F-318B6B24C037}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A3C0ABE-C215-43C5-B4C7-53BE3A1F6C26}" name="workstationImportSchema_en" displayName="workstationImportSchema_en" ref="A1:N2" insertRow="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N2" xr:uid="{6A3C0ABE-C215-43C5-B4C7-53BE3A1F6C26}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{EC0ED22E-51DB-45AF-BBE0-36255B3D977C}" name="工作站编号" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{20CAD70D-F22C-480F-907B-61136A6B7621}" name="工作站名称" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{623D83BD-2E6A-421C-884C-6BB7053EEB4E}" name="工作站类型" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{621FF2A6-7094-4E3A-AD45-708D057C356A}" name="描述" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{21A79DA6-B8A9-4B8A-A34B-ED2244F7C9E1}" name="系列号" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{32FD5C5B-6652-434E-9EDF-CDB2B5CE70CE}" name="UDT编号" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{2D214DCA-D36F-49AD-B578-4BD9D8399361}" name="系列" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{20FE71FB-EBDD-4374-8C48-C565DAB139B0}" name="制造商" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{D45965A3-9AF1-4944-BB2D-92C3CC3BA7A9}" name="生产日期" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{B4ED381F-4CF6-4142-8E3B-2DC936E4675F}" name="入厂日期" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{71BD045B-ABFD-4F11-AFAC-DE2F321BDDB0}" name="退出日期" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2CCCF4F9-D191-4031-BBFE-0A3718DDA7BD}" name="WNK 编号" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{88C77726-5C0D-41BD-A154-37729FFDF3DA}" name="部门编号" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{D1041B25-4D6C-4A5B-B7BF-00E2DF5D0901}" name="生产线编号" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Motyw pakietu Office">
       <a:dk1>
@@ -409,7 +1570,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -428,7 +1589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -458,7 +1619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -484,7 +1645,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -510,7 +1671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -536,7 +1697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -562,7 +1723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -588,7 +1749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -614,7 +1775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -640,7 +1801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,7 +1827,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -679,9 +1840,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -698,7 +1865,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -717,7 +1884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,7 +1910,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,7 +1936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -795,7 +1962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,7 +1988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,7 +2014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +2040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -899,7 +2066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -925,7 +2092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -951,7 +2118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,9 +2131,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -980,7 +2153,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -999,7 +2172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1029,7 +2202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,7 +2228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1081,7 +2254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1107,7 +2280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +2306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +2332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +2358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,7 +2384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +2410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,78 +2423,94 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:IV62"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.9" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="16.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8516" style="1" customWidth="1"/>
-    <col min="5" max="14" width="16.8516" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" style="2" customWidth="1"/>
+    <col min="5" max="9" width="16.8984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" style="2" customWidth="1"/>
+    <col min="12" max="14" width="16.8984375" style="2" customWidth="1"/>
+    <col min="15" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="16384" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:14" ht="15.9" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="J1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.9" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1331,10 +2520,10 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.9" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1350,7 +2539,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
+    <row r="4" spans="1:14" ht="15.9" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1366,7 +2555,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
+    <row r="5" spans="1:14" ht="15.9" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1382,7 +2571,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
+    <row r="6" spans="1:14" ht="15.9" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1398,7 +2587,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
+    <row r="7" spans="1:14" ht="15.9" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1414,7 +2603,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
+    <row r="8" spans="1:14" ht="15.9" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1430,7 +2619,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
+    <row r="9" spans="1:14" ht="15.9" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1446,7 +2635,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
+    <row r="10" spans="1:14" ht="15.9" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1462,7 +2651,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" ht="15.95" customHeight="1">
+    <row r="11" spans="1:14" ht="15.9" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1478,7 +2667,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" ht="15.95" customHeight="1">
+    <row r="12" spans="1:14" ht="15.9" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1494,7 +2683,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" ht="15.95" customHeight="1">
+    <row r="13" spans="1:14" ht="15.9" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1510,7 +2699,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" ht="15.95" customHeight="1">
+    <row r="14" spans="1:14" ht="15.9" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1526,7 +2715,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" ht="15.95" customHeight="1">
+    <row r="15" spans="1:14" ht="15.9" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1542,7 +2731,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" ht="15.95" customHeight="1">
+    <row r="16" spans="1:14" ht="15.9" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1558,7 +2747,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" ht="15.95" customHeight="1">
+    <row r="17" spans="1:14" ht="15.9" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1574,7 +2763,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" ht="15.95" customHeight="1">
+    <row r="18" spans="1:14" ht="15.9" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1590,7 +2779,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" ht="15.95" customHeight="1">
+    <row r="19" spans="1:14" ht="15.9" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1606,7 +2795,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" ht="15.95" customHeight="1">
+    <row r="20" spans="1:14" ht="15.9" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1622,7 +2811,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" ht="15.95" customHeight="1">
+    <row r="21" spans="1:14" ht="15.9" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1638,7 +2827,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" ht="15.95" customHeight="1">
+    <row r="22" spans="1:14" ht="15.9" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1654,7 +2843,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" ht="15.95" customHeight="1">
+    <row r="23" spans="1:14" ht="15.9" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1670,7 +2859,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" ht="15.95" customHeight="1">
+    <row r="24" spans="1:14" ht="15.9" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1686,7 +2875,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" ht="15.95" customHeight="1">
+    <row r="25" spans="1:14" ht="15.9" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1702,7 +2891,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" ht="15.95" customHeight="1">
+    <row r="26" spans="1:14" ht="15.9" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1718,7 +2907,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" ht="15.95" customHeight="1">
+    <row r="27" spans="1:14" ht="15.9" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1734,7 +2923,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" ht="15.95" customHeight="1">
+    <row r="28" spans="1:14" ht="15.9" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1750,7 +2939,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" ht="15.95" customHeight="1">
+    <row r="29" spans="1:14" ht="15.9" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1766,7 +2955,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" ht="15.95" customHeight="1">
+    <row r="30" spans="1:14" ht="15.9" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1782,7 +2971,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" ht="15.95" customHeight="1">
+    <row r="31" spans="1:14" ht="15.9" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1798,7 +2987,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" ht="15.95" customHeight="1">
+    <row r="32" spans="1:14" ht="15.9" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1814,7 +3003,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" ht="15.95" customHeight="1">
+    <row r="33" spans="1:14" ht="15.9" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1830,7 +3019,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" ht="15.95" customHeight="1">
+    <row r="34" spans="1:14" ht="15.9" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1846,7 +3035,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" ht="15.95" customHeight="1">
+    <row r="35" spans="1:14" ht="15.9" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1862,7 +3051,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" ht="15.95" customHeight="1">
+    <row r="36" spans="1:14" ht="15.9" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1878,7 +3067,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" ht="15.95" customHeight="1">
+    <row r="37" spans="1:14" ht="15.9" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1894,7 +3083,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" ht="15.95" customHeight="1">
+    <row r="38" spans="1:14" ht="15.9" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1910,7 +3099,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" ht="15.95" customHeight="1">
+    <row r="39" spans="1:14" ht="15.9" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1926,7 +3115,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" ht="15.95" customHeight="1">
+    <row r="40" spans="1:14" ht="15.9" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1942,7 +3131,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" ht="15.95" customHeight="1">
+    <row r="41" spans="1:14" ht="15.9" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1958,7 +3147,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" ht="15.95" customHeight="1">
+    <row r="42" spans="1:14" ht="15.9" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1974,7 +3163,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" ht="15.95" customHeight="1">
+    <row r="43" spans="1:14" ht="15.9" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1990,7 +3179,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" ht="15.95" customHeight="1">
+    <row r="44" spans="1:14" ht="15.9" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2006,7 +3195,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" ht="15.95" customHeight="1">
+    <row r="45" spans="1:14" ht="15.9" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2022,7 +3211,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" ht="15.95" customHeight="1">
+    <row r="46" spans="1:14" ht="15.9" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2038,7 +3227,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" ht="15.95" customHeight="1">
+    <row r="47" spans="1:14" ht="15.9" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2054,7 +3243,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" ht="15.95" customHeight="1">
+    <row r="48" spans="1:14" ht="15.9" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2070,7 +3259,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" ht="15.95" customHeight="1">
+    <row r="49" spans="1:14" ht="15.9" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2086,7 +3275,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" ht="15.95" customHeight="1">
+    <row r="50" spans="1:14" ht="15.9" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2102,7 +3291,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" ht="15.95" customHeight="1">
+    <row r="51" spans="1:14" ht="15.9" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2118,7 +3307,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" ht="15.95" customHeight="1">
+    <row r="52" spans="1:14" ht="15.9" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2134,7 +3323,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" ht="15.95" customHeight="1">
+    <row r="53" spans="1:14" ht="15.9" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2150,7 +3339,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" ht="15.95" customHeight="1">
+    <row r="54" spans="1:14" ht="15.9" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2166,7 +3355,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" ht="15.95" customHeight="1">
+    <row r="55" spans="1:14" ht="15.9" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2182,7 +3371,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" ht="15.95" customHeight="1">
+    <row r="56" spans="1:14" ht="15.9" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2198,7 +3387,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" ht="15.95" customHeight="1">
+    <row r="57" spans="1:14" ht="15.9" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2214,7 +3403,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" ht="15.95" customHeight="1">
+    <row r="58" spans="1:14" ht="15.9" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2230,7 +3419,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" ht="15.95" customHeight="1">
+    <row r="59" spans="1:14" ht="15.9" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2246,7 +3435,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" ht="15.95" customHeight="1">
+    <row r="60" spans="1:14" ht="15.9" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2262,7 +3451,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" ht="15.95" customHeight="1">
+    <row r="61" spans="1:14" ht="15.9" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2278,7 +3467,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" ht="15.95" customHeight="1">
+    <row r="62" spans="1:14" ht="15.9" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2295,10 +3484,15 @@
       <c r="N62" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>